--- a/2023/south-africa_premier-league_2023-2024.xlsx
+++ b/2023/south-africa_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Golden Arrows</t>
+          <t>Supersport Utd</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Swallows</t>
+          <t>Richards Bay</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.19</v>
+        <v>1.64</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 13:10</t>
+          <t>05/08/2023 14:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>3.46</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.76</v>
+        <v>3.03</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 14:36</t>
+          <t>05/08/2023 14:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.85</v>
+        <v>6.28</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.71</v>
+        <v>6.41</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 14:36</t>
+          <t>05/08/2023 14:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-swallows-fc/d87EG435/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-richards-bay/AXMJD2mO/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Supersport Utd</t>
+          <t>Golden Arrows</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Richards Bay</t>
+          <t>Swallows</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.64</v>
+        <v>2.19</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 14:58</t>
+          <t>05/08/2023 13:10</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.46</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 14:58</t>
+          <t>05/08/2023 14:36</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.28</v>
+        <v>3.85</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.41</v>
+        <v>3.71</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 14:58</t>
+          <t>05/08/2023 14:36</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/supersport-utd-richards-bay/AXMJD2mO/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/golden-arrows-swallows-fc/d87EG435/</t>
         </is>
       </c>
     </row>
@@ -1033,15 +1033,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TS Galaxy</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cape Town Spurs</t>
+          <t>Chippa Utd.</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -1052,52 +1052,52 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>03/08/2023 14:42</t>
+          <t>02/08/2023 21:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.26</v>
+        <v>1.68</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>06/08/2023 14:58</t>
+          <t>06/08/2023 14:53</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>03/08/2023 14:42</t>
+          <t>02/08/2023 21:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>06/08/2023 14:58</t>
+          <t>06/08/2023 14:53</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.83</v>
+        <v>6.22</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>03/08/2023 14:42</t>
+          <t>02/08/2023 21:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.55</v>
+        <v>6.38</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>06/08/2023 14:58</t>
+          <t>06/08/2023 14:53</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-cape-town-spurs/QqcTX5Yu/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-chippa-utd/lOLNCM2U/</t>
         </is>
       </c>
     </row>
@@ -1125,15 +1125,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>TS Galaxy</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Chippa Utd.</t>
+          <t>Cape Town Spurs</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1144,52 +1144,52 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>02/08/2023 21:12</t>
+          <t>03/08/2023 14:42</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.68</v>
+        <v>2.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>06/08/2023 14:53</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.67</v>
+        <v>3.56</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>02/08/2023 21:12</t>
+          <t>03/08/2023 14:42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>06/08/2023 14:53</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.22</v>
+        <v>5.83</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>02/08/2023 21:12</t>
+          <t>03/08/2023 14:42</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.38</v>
+        <v>4.55</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>06/08/2023 14:53</t>
+          <t>06/08/2023 14:58</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-chippa-utd/lOLNCM2U/</t>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/ts-galaxy-cape-town-spurs/QqcTX5Yu/</t>
         </is>
       </c>
     </row>
@@ -5422,6 +5422,190 @@
       <c r="V54" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-africa/premier-league/chippa-utd-supersport-utd/UatU7kwO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45196.8125</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sekhukhune</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>20/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>20/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>20/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/kaizer-chiefs-sekhukhune/vBmHAig5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>south-africa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45196.8125</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Stellenbosch</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-africa/premier-league/mamelodi-sundowns-stellenbosch-fc/MZxM9B8B/</t>
         </is>
       </c>
     </row>
